--- a/Booyco HMI Utility/Resources/Documents/FirmwareRevision.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/FirmwareRevision.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HermiduPlessis\Desktop\M-PSW-045\Booyco HMI Utility\Resources\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox (Mernok Elektronik)\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Github\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2333040A-7BFC-4051-9E57-DBE3280FBEFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1AB391-F19E-4BBA-8749-F07400E37893}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
+    <sheet name="Audio" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -356,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,8 +437,55 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B721F9-BAF5-4BBA-B12A-C3D9541CC074}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>